--- a/doc/ue_tick.xlsx
+++ b/doc/ue_tick.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8902C55-49E5-47B1-A72C-D30080067424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Actor-Tick" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>TICK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,13 +280,25 @@
   </si>
   <si>
     <t>以下为对应调度函数，会操作FTickTaskLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor 会在BeginPlayer里面注册Tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是，需要提前打开开关：PrimaryActorTick.bCanEverTick = true;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个开关不能在蓝图里调用，需要手动打开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -631,10 +643,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -832,11 +844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01368015-C88F-4D7D-9925-A1C6D7E03C89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,4 +1033,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_tick.xlsx
+++ b/doc/ue_tick.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Actor-Tick" sheetId="3" r:id="rId3"/>
+    <sheet name="TickableGameObject" sheetId="1" r:id="rId1"/>
+    <sheet name="FTimerManager" sheetId="5" r:id="rId2"/>
+    <sheet name="FTickTaskManager" sheetId="2" r:id="rId3"/>
+    <sheet name="Actor-Tick" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>TICK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,83 +216,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>回调任务管理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSet&lt;FTickFunction*&gt;						AllEnabledTickFunctions;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前场景所有需要调度的回调列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局唯一对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTickTaskSequencer&amp; TickTaskSequencer;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTickContext Context;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FTickTaskLevel*&gt; LevelList;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level列表，每个Level里面有回调对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void StartFrame(UWorld* InWorld, float InDeltaSeconds, ELevelTick InTickType, const TArray&lt;ULevel*&gt;&amp; LevelsToTick) override</t>
+  </si>
+  <si>
+    <t>virtual void RunTickGroup(ETickingGroup Group, bool bBlockTillComplete ) override</t>
+  </si>
+  <si>
+    <t>virtual void EndFrame() override</t>
+  </si>
+  <si>
+    <t>在void UWorld::Tick( ELevelTick TickType, float DeltaSeconds )里面被调度！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始一帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帧结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTickTaskLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下为对应调度函数，会操作FTickTaskLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor 会在BeginPlayer里面注册Tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是，需要提前打开开关：PrimaryActorTick.bCanEverTick = true;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个开关不能在蓝图里调用，需要手动打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对象构造函数里面会加入到全局的对象里面，然后等待Tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FTickTaskManager</t>
-  </si>
-  <si>
-    <t>回调任务管理器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSet&lt;FTickFunction*&gt;						AllEnabledTickFunctions;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前场景所有需要调度的回调列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局唯一对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTickTaskSequencer&amp; TickTaskSequencer;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTickContext Context;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TArray&lt;FTickTaskLevel*&gt; LevelList;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level列表，每个Level里面有回调对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtual void StartFrame(UWorld* InWorld, float InDeltaSeconds, ELevelTick InTickType, const TArray&lt;ULevel*&gt;&amp; LevelsToTick) override</t>
-  </si>
-  <si>
-    <t>virtual void RunTickGroup(ETickingGroup Group, bool bBlockTillComplete ) override</t>
-  </si>
-  <si>
-    <t>virtual void EndFrame() override</t>
-  </si>
-  <si>
-    <t>在void UWorld::Tick( ELevelTick TickType, float DeltaSeconds )里面被调度！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始一帧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一帧结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTickTaskLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下为对应调度函数，会操作FTickTaskLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor 会在BeginPlayer里面注册Tick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是，需要提前打开开关：PrimaryActorTick.bCanEverTick = true;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个开关不能在蓝图里调用，需要手动打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World自身的一个Timer管理器，使用最小堆管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以注册一些定时器功能，目前引擎中用的比较小，由于是和World关联，只能是World中的对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMG中动画播放使用该机制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E48"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,180 +677,210 @@
     <col min="5" max="5" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="1" t="s">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="1" t="s">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="3" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D30" s="1" t="s">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="1" t="s">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="2" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
         <v>30</v>
       </c>
     </row>
@@ -845,10 +893,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -862,76 +942,76 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1035,11 +1115,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -1047,17 +1127,17 @@
   <sheetData>
     <row r="6" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_tick.xlsx
+++ b/doc/ue_tick.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96156D44-228B-400A-9D30-F080F3828528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TickableGameObject" sheetId="1" r:id="rId1"/>
     <sheet name="FTimerManager" sheetId="5" r:id="rId2"/>
     <sheet name="FTickTaskManager" sheetId="2" r:id="rId3"/>
     <sheet name="Actor-Tick" sheetId="3" r:id="rId4"/>
+    <sheet name="编辑器模式下TICK" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>TICK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,13 +312,31 @@
   </si>
   <si>
     <t>UMG中动画播放使用该机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开着编辑器但没运行时的TICK逻辑处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** If true, actor is ticked even if TickType==LEVELTICK_ViewportsOnly</t>
+  </si>
+  <si>
+    <t>virtual bool ShouldTickIfViewportsOnly() const;</t>
+  </si>
+  <si>
+    <t>设置为TRUE，返回在TICK里面自己写逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -661,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -892,10 +912,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -924,7 +944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1116,7 +1136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C6:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1145,4 +1165,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A731E724-1F31-433E-A6C6-8FE045B53FE1}">
+  <dimension ref="B3:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>